--- a/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_config_test_ni_config_enabled_logs.xlsx
+++ b/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_config_test_ni_config_enabled_logs.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:a201127e-8292-49ea-902c-87f5ab4d88db"&gt;
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:6a9ae8e7-ba91-4c4f-a022-3cf61f8a7800"&gt;
   &lt;data/&gt;
 &lt;/rpc-reply&gt;
 </t>
